--- a/Downer/29267/res_F2LSIP ITP 4 - Pavements.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 4 - Pavements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B27D5-38A0-4939-B69F-0306CAB3C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DA304-2F52-4EB3-88B8-3BB7DD2B0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="0" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 4 - Pavements</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>4.1.2 - Weathering Quality Index Test Test 3.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceptance Criteria - AA, AB, AC, BA, BB, CA or CB </t>
-  </si>
-  <si>
     <t>4.1.3 - Soaked CBR Test Test 3.15</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>4.2.3 - Particle Size Distribution Test 3.8.1</t>
   </si>
   <si>
-    <t>Acceptance Criteria - As per table 302.2.3</t>
-  </si>
-  <si>
     <t>Acceptance Criteria - Under 130kN load &lt; 10% fines passing 2.36mm sieve.</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>Inspection Point: Quality Control Activity - Height Check</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Check to ensure pegs are still sitting at correct height from initial set out.</t>
-  </si>
-  <si>
     <t>Verifying Document - Visual</t>
   </si>
   <si>
@@ -389,6 +377,27 @@
   </si>
   <si>
     <t>checklist</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - AA, AB, AC, BA, BB, or CA</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 04 - Pavements</t>
+  </si>
+  <si>
+    <t>dde760f8-2901-4394-8805-5dda7f5353e6</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - As per Table to A506.2.1</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work.</t>
+  </si>
+  <si>
+    <t>Pavement Construction</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check to ensure pegs are still sitting at correct height from initial set out. Target MDD to be approved prior to Construction. Lab MDD Reports to be submitted for Approval.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +748,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -902,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -912,6 +932,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1267,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1306,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,12 +1332,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1325,119 +1347,122 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,15 +1534,15 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
+      <c r="A26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,15 +1654,15 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,15 +1814,15 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>52</v>
+      <c r="A61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,23 +1862,23 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,23 +2078,23 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2110,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +2182,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2253,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2310,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2326,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,39 +2382,39 @@
         <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>74</v>
+      <c r="B135" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,15 +2454,15 @@
         <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>80</v>
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,15 +2470,15 @@
         <v>9</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>82</v>
+      <c r="A143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,15 +2486,15 @@
         <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>84</v>
+      <c r="A145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,15 +2518,15 @@
         <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>88</v>
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,23 +2534,23 @@
         <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>90</v>
+      <c r="A151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>91</v>
+      <c r="B152" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,15 +2558,15 @@
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>93</v>
+      <c r="B154" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,39 +2590,39 @@
         <v>9</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="B160" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>96</v>
+      <c r="B161" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,39 +2662,39 @@
         <v>9</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="5" t="s">
+      <c r="A167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="B169" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>101</v>
+      <c r="B170" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2726,7 @@
         <v>9</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,15 +2734,15 @@
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>104</v>
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,23 +2750,23 @@
         <v>9</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>105</v>
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>91</v>
+      <c r="B179" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,15 +2774,15 @@
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>93</v>
+      <c r="B181" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +2798,7 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,39 +2806,39 @@
         <v>9</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B185" s="5" t="s">
+      <c r="A185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="B187" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>107</v>
+      <c r="B188" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,39 +2878,39 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B194" s="5" t="s">
+      <c r="A194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="B196" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>110</v>
+      <c r="B197" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,39 +2926,39 @@
         <v>9</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>114</v>
+      <c r="B200" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>113</v>
+      <c r="B201" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>31</v>
+      <c r="B202" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>32</v>
+      <c r="B203" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,39 +2966,39 @@
         <v>9</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B205" s="5" t="s">
+      <c r="A205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="B207" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>117</v>
+      <c r="B208" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3030,7 @@
         <v>9</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3046,7 @@
         <v>9</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3054,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,15 +3062,31 @@
         <v>9</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B217" s="5" t="s">
+      <c r="A217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
